--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,25 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كلوروكس الوان باوش - 450 جم</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة مرمرية - 350 جم</t>
-  </si>
-  <si>
-    <t>مشروب بودرة تانج  برتقال جديد 2 لتر - 40 جرام</t>
+    <t>حفاضات بامبرز عبوة التوفير مقاس 4 - 58 حفاضة</t>
   </si>
   <si>
     <t>تورتا ديلايتس كـيك كاكاو محشو بكريمه الشكولاته ومغطي بالشكولاته - 10 جنية</t>
   </si>
   <si>
-    <t>تمر واحة القصيم شفاف  - 700 جم</t>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -413,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,138 +435,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>6728</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>300.75</v>
+        <v>348</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>7707</v>
+        <v>334</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>170.75</v>
+        <v>1044</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24126</v>
+        <v>24707</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>122.25</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24126</v>
+        <v>24707</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1222.5</v>
+        <v>864</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>24707</v>
-      </c>
-      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>47.75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>24707</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>859.5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>25254</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>80.5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>25254</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>644</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>حفاضات بامبرز عبوة التوفير مقاس 4 - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>تورتا ديلايتس كـيك كاكاو محشو بكريمه الشكولاته ومغطي بالشكولاته - 10 جنية</t>
+    <t>تورتا رولز ديلايتس كيـك كاكاو محشو بكريمه الفانيليا ومغطي بالشكولاته - 10 جنية</t>
   </si>
   <si>
     <t>NO</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,70 +432,36 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>334</v>
+        <v>24708</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>348</v>
+        <v>47.5</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>334</v>
+        <v>24708</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1044</v>
+        <v>855</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>24707</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>24707</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>864</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,19 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>تورتا رولز ديلايتس كيـك كاكاو محشو بكريمه الفانيليا ومغطي بالشكولاته - 10 جنية</t>
+    <t>كابتشينو كوفى بريك فانيليا 8 ظرف - 18.5 جم</t>
+  </si>
+  <si>
+    <t>كابتشينو كوفى بريك موكا - 18.5 جم</t>
+  </si>
+  <si>
+    <t>كابتشينو كوفى بريك بندق 8 ظرف - 18.5 جم</t>
+  </si>
+  <si>
+    <t>عدس حبوبة اصفر - 500 جم</t>
+  </si>
+  <si>
+    <t>فول حبوبة تدميس - 500 جم</t>
   </si>
   <si>
     <t>NO</t>
@@ -401,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +444,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24708</v>
+        <v>2050</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -441,15 +453,15 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>47.5</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24708</v>
+        <v>2050</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -458,10 +470,112 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>855</v>
+        <v>1560</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2054</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1560</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2054</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2055</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1560</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2055</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2322</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>275.75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2324</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>200.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,22 +37,22 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كابتشينو كوفى بريك فانيليا 8 ظرف - 18.5 جم</t>
-  </si>
-  <si>
-    <t>كابتشينو كوفى بريك موكا - 18.5 جم</t>
-  </si>
-  <si>
-    <t>كابتشينو كوفى بريك بندق 8 ظرف - 18.5 جم</t>
-  </si>
-  <si>
-    <t>عدس حبوبة اصفر - 500 جم</t>
-  </si>
-  <si>
-    <t>فول حبوبة تدميس - 500 جم</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>مكرونة حواء فرن - 400 جم</t>
+  </si>
+  <si>
+    <t>ذرة فشار الضحى - 500 جم</t>
+  </si>
+  <si>
+    <t>سوفى ماكسى بالمسك طويل سميكة عرض خاص - 16 فوطة</t>
+  </si>
+  <si>
+    <t>شوكولاتة جلاكسى فلوتس كريم - 11.25 جم</t>
+  </si>
+  <si>
+    <t>سائل اطباق وفير بلس ليمون اصفر - 725 جم</t>
+  </si>
+  <si>
+    <t>سوفى ليلية ماكسى بالمسك طويل جدا جدا 36 سم عرض خاص - 12 فوطة</t>
   </si>
   <si>
     <t>YES</t>
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,33 +444,33 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2050</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2050</v>
+        <v>1068</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3">
-        <v>1560</v>
+        <v>73.5</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -478,33 +478,33 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2054</v>
+        <v>1068</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1560</v>
+        <v>1470</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2054</v>
+        <v>2912</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>592</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -512,33 +512,33 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>2055</v>
+        <v>2912</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1560</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2055</v>
+        <v>6966</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>65</v>
+        <v>1672</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -546,16 +546,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>2322</v>
+        <v>6966</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>275.75</v>
+        <v>104.5</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -563,18 +563,52 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>2324</v>
+        <v>8600</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>11150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>200.5</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D10">
+        <v>82.75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>11150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>662</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,22 +37,28 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مكرونة حواء فرن - 400 جم</t>
-  </si>
-  <si>
-    <t>ذرة فشار الضحى - 500 جم</t>
-  </si>
-  <si>
-    <t>سوفى ماكسى بالمسك طويل سميكة عرض خاص - 16 فوطة</t>
-  </si>
-  <si>
-    <t>شوكولاتة جلاكسى فلوتس كريم - 11.25 جم</t>
-  </si>
-  <si>
-    <t>سائل اطباق وفير بلس ليمون اصفر - 725 جم</t>
-  </si>
-  <si>
-    <t>سوفى ليلية ماكسى بالمسك طويل جدا جدا 36 سم عرض خاص - 12 فوطة</t>
+    <t>مكرونة حواء مرمرية - 400 جم</t>
+  </si>
+  <si>
+    <t>مكرونة حواء خواتم - 400 جم</t>
+  </si>
+  <si>
+    <t>فانتا برتقال - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>اندومى لحمة بيف جامبو عرض 44 كيس - 100 جم</t>
+  </si>
+  <si>
+    <t>كلوركس الوان ظرف - 210 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة فرن - 350 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
+  </si>
+  <si>
+    <t>اوكسي يدوي 32 كيس - 50 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -413,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +450,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -453,163 +459,146 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1068</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>73.5</v>
+        <v>265</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>1068</v>
+        <v>2776</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1470</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2912</v>
+        <v>7005</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>592</v>
+        <v>377</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>2912</v>
+        <v>7036</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>6966</v>
+        <v>7705</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1672</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>6966</v>
+        <v>8216</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
       <c r="D8">
-        <v>104.5</v>
+        <v>15.25</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>8600</v>
+        <v>8216</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>11150</v>
+        <v>21793</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>82.75</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>11150</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>662</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,28 +37,28 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مكرونة حواء مرمرية - 400 جم</t>
-  </si>
-  <si>
-    <t>مكرونة حواء خواتم - 400 جم</t>
-  </si>
-  <si>
-    <t>فانتا برتقال - 2.45 لتر</t>
-  </si>
-  <si>
-    <t>اندومى لحمة بيف جامبو عرض 44 كيس - 100 جم</t>
-  </si>
-  <si>
-    <t>كلوركس الوان ظرف - 210 جم</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة فرن - 350 جم</t>
-  </si>
-  <si>
-    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
-  </si>
-  <si>
-    <t>اوكسي يدوي 32 كيس - 50 جم</t>
+    <t>صلصة هارفست صفيح - 375 جم</t>
+  </si>
+  <si>
+    <t>شاى ليبتون ناعم  - 250 جم</t>
+  </si>
+  <si>
+    <t>شاى الكبوس ناعم عرض 65 ج - 200 جم</t>
+  </si>
+  <si>
+    <t>شوكولاتة تاوتاو كرانش بالكاكاو - 12 قطعه</t>
+  </si>
+  <si>
+    <t>حلو الشام فانيليا  - 2 جم</t>
+  </si>
+  <si>
+    <t>ديرى مثلثات - 16 قطعه</t>
+  </si>
+  <si>
+    <t>البوادي مربى كريمي مشمش - 365 جرام</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,33 +450,33 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>267</v>
+        <v>199.5</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>265</v>
+        <v>798</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -484,16 +484,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2776</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>199</v>
+        <v>33.25</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -501,16 +501,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>7005</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -518,16 +518,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>7036</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>229</v>
+        <v>51.75</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -535,16 +535,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>7705</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>163</v>
+        <v>2484</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -552,16 +552,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>8216</v>
+        <v>9081</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>15.25</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -569,16 +569,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>8216</v>
+        <v>9081</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>366</v>
+        <v>1464</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -586,18 +586,137 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>21793</v>
+        <v>13023</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>51.25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>13023</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>127</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D11">
+        <v>615</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>13324</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>333</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>13324</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>27.75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>21713</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>26.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>21713</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>636</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>23038</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>345</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>23038</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>28.75</v>
+      </c>
+      <c r="E17" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,28 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>صلصة هارفست صفيح - 375 جم</t>
-  </si>
-  <si>
-    <t>شاى ليبتون ناعم  - 250 جم</t>
-  </si>
-  <si>
-    <t>شاى الكبوس ناعم عرض 65 ج - 200 جم</t>
-  </si>
-  <si>
-    <t>شوكولاتة تاوتاو كرانش بالكاكاو - 12 قطعه</t>
-  </si>
-  <si>
-    <t>حلو الشام فانيليا  - 2 جم</t>
-  </si>
-  <si>
-    <t>ديرى مثلثات - 16 قطعه</t>
-  </si>
-  <si>
-    <t>البوادي مربى كريمي مشمش - 365 جرام</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>كابتشينو كوفى بريك فانيليا 8 ظرف - 18.5 جم</t>
+  </si>
+  <si>
+    <t>ليدر جل عادى للابيض و الوان - 50 جم</t>
+  </si>
+  <si>
+    <t>تيكا مارشملو ميني ازرق - 18 جرام 5 جنية</t>
   </si>
   <si>
     <t>YES</t>
@@ -419,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,24 +435,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>66</v>
+        <v>2050</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>199.5</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>66</v>
+        <v>2050</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -476,248 +461,61 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>798</v>
+        <v>1560</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>66</v>
+        <v>9381</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>33.25</v>
+        <v>33.5</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>66</v>
+        <v>12241</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>399</v>
+        <v>88.75</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>88</v>
+        <v>12241</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>355</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
-      </c>
-      <c r="D6">
-        <v>51.75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2484</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>9081</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>9081</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1464</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>13023</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>51.25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>13023</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>615</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>13324</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>333</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>13324</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>27.75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>21713</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>26.5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>21713</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>636</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>23038</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>345</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>23038</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>28.75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,16 +37,40 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كابتشينو كوفى بريك فانيليا 8 ظرف - 18.5 جم</t>
-  </si>
-  <si>
-    <t>ليدر جل عادى للابيض و الوان - 50 جم</t>
-  </si>
-  <si>
-    <t>تيكا مارشملو ميني ازرق - 18 جرام 5 جنية</t>
+    <t>ارز حبوبة عريض الحبة - 1 كجم</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
+  </si>
+  <si>
+    <t>سمن روابى قشطة - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
+  </si>
+  <si>
+    <t>سكر حبوبة ابيض فاخر - 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة فرن بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
+  </si>
+  <si>
+    <t>باندا جورمية مثلثات - 16 قطعه</t>
+  </si>
+  <si>
+    <t>ماكسى ليمون نعناع - 1 لتر</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -404,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,87 +459,274 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2050</v>
+        <v>1243</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2050</v>
+        <v>2778</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1560</v>
+        <v>205</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>9381</v>
+        <v>3558</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>33.5</v>
+        <v>28.5</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>12241</v>
+        <v>3558</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>88.75</v>
+        <v>684</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>12241</v>
+        <v>3558</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>342</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>3558</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>355</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D7">
+        <v>1368</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>5434</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>612</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8216</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>360</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>11793</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>292</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>13489</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>237.25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>21687</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>21687</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>324</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>21707</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>52.25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>21707</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1254</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>25278</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,40 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ارز حبوبة عريض الحبة - 1 كجم</t>
-  </si>
-  <si>
-    <t>كوكا كولا - 2.45 لتر</t>
-  </si>
-  <si>
-    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
-  </si>
-  <si>
-    <t>سمن روابى قشطة - 1.5 كجم</t>
-  </si>
-  <si>
-    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
-  </si>
-  <si>
-    <t>سكر حبوبة ابيض فاخر - 1 كجم</t>
-  </si>
-  <si>
-    <t>مكرونة فرن بساطة - 1 كجم</t>
-  </si>
-  <si>
-    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
-  </si>
-  <si>
-    <t>باندا جورمية مثلثات - 16 قطعه</t>
-  </si>
-  <si>
-    <t>ماكسى ليمون نعناع - 1 لتر</t>
+    <t>سفن اب كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>راني عصير كوكتيل حبيبات- 235 مل</t>
+  </si>
+  <si>
+    <t>سولا قهوة - 55 قطعه</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -428,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +435,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1243</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -468,15 +444,15 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>300</v>
+        <v>294.75</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2778</v>
+        <v>10507</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -485,248 +461,44 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>205</v>
+        <v>391.5</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3558</v>
+        <v>21463</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>28.5</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3558</v>
+        <v>21463</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>684</v>
+        <v>480</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>3558</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>342</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>3558</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1368</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>5434</v>
-      </c>
-      <c r="B8" t="s">
         <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>612</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>8216</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>360</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>8216</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>11793</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>292</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>13489</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>237.25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>21687</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>21687</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>324</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>21707</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>52.25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>21707</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1254</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>25278</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>سفن اب كانز جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>راني عصير كوكتيل حبيبات- 235 مل</t>
-  </si>
-  <si>
-    <t>سولا قهوة - 55 قطعه</t>
+    <t>بن عبد المعبود محوج فاتح - 50 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -435,70 +432,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>435</v>
+        <v>952</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>294.75</v>
+        <v>358</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>10507</v>
+        <v>952</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>391.5</v>
+        <v>4296</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>21463</v>
+        <v>8216</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>330</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>21463</v>
+        <v>8216</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>13.75</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>480</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>بن عبد المعبود محوج فاتح - 50 جم</t>
-  </si>
-  <si>
-    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
+    <t>شوكولاتة دريم خام للطبخ حليب - 200 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,24 +429,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>952</v>
+        <v>10082</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>358</v>
+        <v>51.75</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>952</v>
+        <v>10082</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -458,44 +455,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>4296</v>
+        <v>1242</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>8216</v>
-      </c>
-      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>330</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>8216</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>13.75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,70 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شوكولاتة دريم خام للطبخ حليب - 200 جم</t>
+    <t>كلوركس كلور - 1.2 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون باوش - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1  لافندر باوش - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 لافندر - 3 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر - 3 لتر</t>
+  </si>
+  <si>
+    <t>كلوروكس باودر - 250 جم</t>
+  </si>
+  <si>
+    <t>كلوركس جل نعناع - 750 مل</t>
+  </si>
+  <si>
+    <t>كلوركس متعدد الاستخدامات - 1 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون - 700 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون اصفر - 950 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون - 4 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس الوان برائحة الزهور - 475 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر باوش - 200 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نعناع اخضر - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر ازرق - 700 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل زهور - 750 مل</t>
+  </si>
+  <si>
+    <t>كلوركس الوان - 750 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل + منظف ليمون - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل+ منظف زهور - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل + منظف نعناع  - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس ابيض لافندر - 4 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,36 +492,376 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>10082</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>51.75</v>
+        <v>387</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>10082</v>
+        <v>2658</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1242</v>
+        <v>378.25</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2661</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>378.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2663</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>508</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2664</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>508</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2666</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>735</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2669</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>509</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2670</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>447</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2673</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>507</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3386</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>323</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3387</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>211</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3390</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>267</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3394</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>203</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3395</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>375</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3396</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>376.25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>3399</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>507</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>6946</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>509</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>10254</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>475</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>23904</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>305</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>23905</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>305</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>23906</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>305</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>23908</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>211</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>حبوبة خل- 900 مل</t>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
+  </si>
+  <si>
+    <t>مربى البوادى تين - 680 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +432,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>74</v>
+        <v>8216</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +441,61 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>147</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>8216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>13.75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>10411</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>10411</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>492</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
-  </si>
-  <si>
-    <t>مربى البوادى تين - 680 جم</t>
+    <t>مربى البوادى فراولة - 680 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,70 +429,36 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>8216</v>
+        <v>10408</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>330</v>
+        <v>40.5</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>8216</v>
+        <v>10408</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>13.75</v>
+        <v>486</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>10411</v>
-      </c>
-      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>10411</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>492</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,22 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مربى البوادى فراولة - 680 جم</t>
+    <t>شاى ليبتون  ناعم  - 40 جم</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس - 1.75 لتر</t>
+  </si>
+  <si>
+    <t>HD-بسكوت ويفر محشو بكريمه الشيكولاتة - 7 جنية</t>
+  </si>
+  <si>
+    <t>سكوت ويفر بكريمه الفانيليا HD - 7 جنية</t>
+  </si>
+  <si>
+    <t>بسكوت ويفر بالكاكاو محشو بكريمه الشيكولاتة HD - 7 جنية</t>
+  </si>
+  <si>
+    <t>بسكويت ويفر محشو بكريمة البندق HD الشمعدان - 6 قطعه</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,24 +444,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>10408</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>40.5</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>10408</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -455,10 +470,163 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>486</v>
+        <v>2928</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2327</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>209.25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>10459</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>579</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>10459</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>48.25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>10460</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>579</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>10460</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>48.25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>10461</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>579</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>10461</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>48.25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>23546</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>23546</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>576</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,22 +37,34 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شاى ليبتون  ناعم  - 40 جم</t>
-  </si>
-  <si>
-    <t>شويبس جولد اناناس - 1.75 لتر</t>
-  </si>
-  <si>
-    <t>HD-بسكوت ويفر محشو بكريمه الشيكولاتة - 7 جنية</t>
-  </si>
-  <si>
-    <t>سكوت ويفر بكريمه الفانيليا HD - 7 جنية</t>
-  </si>
-  <si>
-    <t>بسكوت ويفر بالكاكاو محشو بكريمه الشيكولاتة HD - 7 جنية</t>
-  </si>
-  <si>
-    <t>بسكويت ويفر محشو بكريمة البندق HD الشمعدان - 6 قطعه</t>
+    <t>البوادي حلاوة- 130 جم</t>
+  </si>
+  <si>
+    <t>لبن المراعى كامل الدسم - 200 مل</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل ازرق يدوى - 2.5 كجم</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر - 1 كجم</t>
+  </si>
+  <si>
+    <t>جبنة عبور لاند شيدر - 500 جم</t>
+  </si>
+  <si>
+    <t>عصير تانج برتقال بودر برطمان - 450 جم</t>
+  </si>
+  <si>
+    <t>شاى الكبوس ناعم - 30 جم</t>
+  </si>
+  <si>
+    <t>مناديل زينة تريو عرض خاص - 500 منديل</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى ابيض و الوان نسيم الشرق - 30 جم</t>
+  </si>
+  <si>
+    <t>بونجورنو  كوفي مزاجو ميكس 4*1 - 15 جرام</t>
   </si>
   <si>
     <t>YES</t>
@@ -413,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,41 +456,41 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>94</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>244</v>
+        <v>1188</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>94</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2928</v>
+        <v>24.75</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2327</v>
+        <v>955</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -487,146 +499,197 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>209.25</v>
+        <v>295</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>10459</v>
+        <v>3934</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>579</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>10459</v>
+        <v>4253</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>48.25</v>
+        <v>180.5</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>10460</v>
+        <v>5649</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>579</v>
+        <v>462</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>10460</v>
+        <v>8688</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>48.25</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>10461</v>
+        <v>8688</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>579</v>
+        <v>1230</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>10461</v>
+        <v>9082</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>48.25</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>23546</v>
+        <v>9082</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>1800</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>23546</v>
+        <v>9760</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>406.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>11161</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>576</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
+      <c r="D13">
+        <v>59.75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>22558</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1524</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>22558</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>63.5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,37 +37,25 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>البوادي حلاوة- 130 جم</t>
-  </si>
-  <si>
-    <t>لبن المراعى كامل الدسم - 200 مل</t>
-  </si>
-  <si>
-    <t>مسحوق غسيل فل ازرق يدوى - 2.5 كجم</t>
-  </si>
-  <si>
-    <t>مسحوق باهى يدوى لافندر - 1 كجم</t>
-  </si>
-  <si>
-    <t>جبنة عبور لاند شيدر - 500 جم</t>
-  </si>
-  <si>
-    <t>عصير تانج برتقال بودر برطمان - 450 جم</t>
-  </si>
-  <si>
-    <t>شاى الكبوس ناعم - 30 جم</t>
-  </si>
-  <si>
-    <t>مناديل زينة تريو عرض خاص - 500 منديل</t>
-  </si>
-  <si>
-    <t>اوكسى جل يدوى ابيض و الوان نسيم الشرق - 30 جم</t>
-  </si>
-  <si>
-    <t>بونجورنو  كوفي مزاجو ميكس 4*1 - 15 جرام</t>
+    <t>عصير بيتى تفاح - 235 مل</t>
+  </si>
+  <si>
+    <t>بيبسى - 2.43 لتر</t>
+  </si>
+  <si>
+    <t>تونة دولفين قطع بارد - 185 جم</t>
+  </si>
+  <si>
+    <t>تونة دولفين مفتتة بارد 170 جم + 30 جم - 200 جم</t>
+  </si>
+  <si>
+    <t>شاى الكبوس ناعم عرض 65 ج - 200 جم</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -425,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,240 +444,206 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1188</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>335</v>
+        <v>589</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>24.75</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>295</v>
+        <v>1338</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3934</v>
+        <v>944</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>669</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>4253</v>
+        <v>944</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>180.5</v>
+        <v>55.75</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>5649</v>
+        <v>944</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>462</v>
+        <v>2676</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>8688</v>
+        <v>3430</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>8688</v>
+        <v>3430</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1230</v>
+        <v>1644</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>9082</v>
+        <v>3430</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>822</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>9082</v>
+        <v>3430</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>1800</v>
+        <v>34.25</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>9760</v>
+        <v>9081</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>406.5</v>
+        <v>60.5</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>11161</v>
+        <v>9081</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>59.75</v>
+        <v>1452</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>22558</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1524</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>22558</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>63.5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_704.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,25 +37,25 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير بيتى تفاح - 235 مل</t>
-  </si>
-  <si>
-    <t>بيبسى - 2.43 لتر</t>
-  </si>
-  <si>
-    <t>تونة دولفين قطع بارد - 185 جم</t>
-  </si>
-  <si>
-    <t>تونة دولفين مفتتة بارد 170 جم + 30 جم - 200 جم</t>
-  </si>
-  <si>
-    <t>شاى الكبوس ناعم عرض 65 ج - 200 جم</t>
+    <t>عصير كل يوم تفاح 225 مل</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>رويال أعشاب ينسون- 20 فتلة</t>
+  </si>
+  <si>
+    <t>تونة دولفين قطعة واحدة حار - 200 جم</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>بيج كولا - 360 مل</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>143</v>
+        <v>997</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -453,15 +453,15 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>190</v>
+        <v>123.75</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>589</v>
+        <v>2778</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -470,24 +470,24 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>944</v>
+        <v>3981</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1338</v>
+        <v>1296</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -495,67 +495,67 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>944</v>
+        <v>3981</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>669</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>944</v>
+        <v>5020</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>55.75</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>944</v>
+        <v>5020</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2676</v>
+        <v>2832</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>3430</v>
+        <v>5493</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>411</v>
+        <v>292</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -563,87 +563,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>3430</v>
+        <v>10992</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1644</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>3430</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>822</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>3430</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>34.25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>9081</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>60.5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>9081</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1452</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
